--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTranCode.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTranCode.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8D50E0-EA1D-45C8-AE6E-94F84183571D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -278,10 +279,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0.否 1.是 (限二段式交易使用)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>0.不控管 1.控管</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -303,14 +300,30 @@
   </si>
   <si>
     <t>CustDataCtrlFg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0.否 1.是 (限二段式交易使用) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2.自動</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -398,6 +411,13 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -485,7 +505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -498,9 +518,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -513,16 +530,16 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -530,9 +547,6 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -588,8 +602,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -680,6 +694,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -715,6 +746,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -890,480 +938,480 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:G27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="25" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.33203125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="23" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.33203125" style="22" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <f t="shared" ref="A11:A25" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23" t="s">
+      <c r="F17" s="20"/>
+      <c r="G17" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23" t="s">
-        <v>69</v>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="26" t="s">
+      <c r="B20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23" t="s">
-        <v>70</v>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="28" t="s">
+      <c r="B21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="22" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="25">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="25">
         <v>6</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1382,7 +1430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTranCode.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTranCode.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8D50E0-EA1D-45C8-AE6E-94F84183571D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB27571-3318-41EB-9230-2AB47207DDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
+    <sheet name="敏感性資料" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="101">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -318,12 +319,102 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>入口交易提示訊息</t>
+  </si>
+  <si>
+    <t>敏感性資料記錄記號</t>
+  </si>
+  <si>
+    <t>ChainTranMsg</t>
+  </si>
+  <si>
+    <t>ApLogFlag</t>
+  </si>
+  <si>
+    <t>ApLogRim</t>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-NONE
+1-YES</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/02/06家興新增</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏感性資料記錄Rim代碼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1101</t>
+  </si>
+  <si>
+    <t>顧客明細資料查詢</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易代號</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易名稱</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>顧客基本資料維護-自然人</t>
+  </si>
+  <si>
+    <t>L1102</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1103</t>
+  </si>
+  <si>
+    <t>顧客基本資料修改-自然人</t>
+  </si>
+  <si>
+    <t>1-YES</t>
+  </si>
+  <si>
+    <t>L1R01</t>
+  </si>
+  <si>
+    <t>顧客基本資料修改-法人</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>顧客基本資料維護-法人</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1104</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -418,8 +509,29 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +541,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,7 +623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -587,6 +705,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -598,6 +740,24 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -939,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -957,10 +1117,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="7" t="s">
         <v>18</v>
       </c>
@@ -972,8 +1132,8 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
@@ -985,10 +1145,10 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="7" t="s">
         <v>20</v>
       </c>
@@ -998,10 +1158,10 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="7"/>
       <c r="D4" s="15"/>
       <c r="E4" s="9"/>
@@ -1009,10 +1169,10 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="7"/>
       <c r="D5" s="15"/>
       <c r="E5" s="9"/>
@@ -1020,10 +1180,10 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="7"/>
       <c r="D6" s="15"/>
       <c r="E6" s="9"/>
@@ -1031,10 +1191,10 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="7"/>
       <c r="D7" s="15"/>
       <c r="E7" s="9"/>
@@ -1105,7 +1265,7 @@
     </row>
     <row r="11" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <f t="shared" ref="A11:A25" si="0">A10+1</f>
+        <f t="shared" ref="A11:A21" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1229,7 +1389,7 @@
       <c r="F16" s="20"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1251,7 +1411,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1273,7 +1433,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1295,7 +1455,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1317,7 +1477,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1339,79 +1499,143 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <f t="shared" si="0"/>
+    <row r="22" spans="1:8" s="33" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27">
         <v>14</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="33" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="27">
+        <v>15</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="33" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27">
+        <v>16</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>17</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="25">
-        <v>6</v>
-      </c>
+      <c r="E25" s="25"/>
       <c r="F25" s="20"/>
       <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>18</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>19</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>20</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="25">
+        <v>6</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1473,4 +1697,103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFEF1AE-EB95-4469-ACDB-3F0447954F4F}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" style="39" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="43"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="43"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="43"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTranCode.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTranCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB27571-3318-41EB-9230-2AB47207DDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DEE462-2439-4F98-B37D-2E24AEC91A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,11 +347,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0-NONE
-1-YES</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2023/02/06家興新增</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -408,6 +403,11 @@
   <si>
     <t>L1104</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-否
+1-是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -729,6 +729,24 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -740,24 +758,6 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1117,10 +1117,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="7" t="s">
         <v>18</v>
       </c>
@@ -1132,8 +1132,8 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
@@ -1145,10 +1145,10 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="7" t="s">
         <v>20</v>
       </c>
@@ -1158,10 +1158,10 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="7"/>
       <c r="D4" s="15"/>
       <c r="E4" s="9"/>
@@ -1169,10 +1169,10 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="7"/>
       <c r="D5" s="15"/>
       <c r="E5" s="9"/>
@@ -1180,10 +1180,10 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="7"/>
       <c r="D6" s="15"/>
       <c r="E6" s="9"/>
@@ -1191,10 +1191,10 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="7"/>
       <c r="D7" s="15"/>
       <c r="E7" s="9"/>
@@ -1518,7 +1518,7 @@
       <c r="F22" s="31"/>
       <c r="G22" s="32"/>
       <c r="H22" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="33" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -1539,10 +1539,10 @@
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="33" t="s">
         <v>84</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="33" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1553,7 +1553,7 @@
         <v>80</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>14</v>
@@ -1564,7 +1564,7 @@
       <c r="F24" s="31"/>
       <c r="G24" s="32"/>
       <c r="H24" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1710,86 +1710,86 @@
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="C1" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="41" t="s">
+      <c r="B2" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="39"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="B3" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="43" t="s">
+      <c r="C3" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="39"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="39"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="43"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="43" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="39" t="s">
         <v>96</v>
-      </c>
-      <c r="D3" s="43"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="43"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTranCode.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTranCode.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DEE462-2439-4F98-B37D-2E24AEC91A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="敏感性資料" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -285,10 +284,6 @@
   </si>
   <si>
     <t>CustRmkFg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>結清戶個資控管記號</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -409,11 +404,15 @@
 1-是</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>結清戶滿五年個資控管記號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -762,8 +761,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -854,23 +853,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -906,23 +888,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1098,11 +1063,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1430,7 +1395,7 @@
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1461,10 +1426,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>15</v>
@@ -1486,7 +1451,7 @@
         <v>70</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>15</v>
@@ -1496,7 +1461,7 @@
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="33" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1504,21 +1469,21 @@
         <v>14</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="32"/>
       <c r="H22" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="33" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -1526,23 +1491,23 @@
         <v>15</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="33" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1550,21 +1515,21 @@
         <v>16</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="32"/>
       <c r="H24" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1654,7 +1619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1700,7 +1665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFEF1AE-EB95-4469-ACDB-3F0447954F4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1716,80 +1681,80 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>89</v>
-      </c>
       <c r="C1" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="39"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="C5" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="D5" s="39" t="s">
         <v>95</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="39" t="s">
         <v>95</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
